--- a/biology/Microbiologie/Bactérie_multirésistante/Bactérie_multirésistante.xlsx
+++ b/biology/Microbiologie/Bactérie_multirésistante/Bactérie_multirésistante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bact%C3%A9rie_multir%C3%A9sistante</t>
+          <t>Bactérie_multirésistante</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bactéries sont dites multirésistantes (BMR) aux antibiotiques lorsque du fait de l’accumulation de résistances acquises à plusieurs familles d’antibiotiques, elles ne sont plus sensibles qu’à un petit nombre d’antibiotiques utilisables en thérapeutique (résistance à plus de 3 familles différentes).
 Ces bactéries font partie des organismes dotés de multirésistance aux médicaments (en), appelée aussi résistance polymédicamenteuse.
-La multirésistance est ainsi une étape vers l’impasse thérapeutique. Les chercheurs et médecins ont d'ailleurs introduit le concept de « superbug » (super-germe), redoutant l'apparition, possible partout, à tout instant, d'un micro-organisme dévastateur résistant à tous les médicaments connus à ce jour, et la recrudescence d'épidémies[1].
+La multirésistance est ainsi une étape vers l’impasse thérapeutique. Les chercheurs et médecins ont d'ailleurs introduit le concept de « superbug » (super-germe), redoutant l'apparition, possible partout, à tout instant, d'un micro-organisme dévastateur résistant à tous les médicaments connus à ce jour, et la recrudescence d'épidémies.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bact%C3%A9rie_multir%C3%A9sistante</t>
+          <t>Bactérie_multirésistante</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,16 @@
           <t>Bactéries concernées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle concerne les bactéries des infections communautaires (ex : pneumocoque, bacilles de la tuberculose) et les bactéries des Infections Nosocomiales (IN)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle concerne les bactéries des infections communautaires (ex : pneumocoque, bacilles de la tuberculose) et les bactéries des Infections Nosocomiales (IN).
 Les BMR les plus souvent détectées en microbiologie sont par ordre de fréquence :
 Entérobactéries à Bêta-lactamase
 Staphylocoque méticilline-résistant (SARM)
 Entérocoque Vancomycine-Résistant (VRE)
-Une étude[3] publiée par le Journal of Antimicrobial Chemotherapy et menée par une équipe dirigée par des scientifiques de l'Université Murdoch de Perth a montré qu'environ 20 % des mouettes argentées australiennes seraient infectées par des bactéries ultrarésistantes comme le E-coli, qui peuvent provoquer des infections urinaires, des méningites ou des septicémies[4].
+Une étude publiée par le Journal of Antimicrobial Chemotherapy et menée par une équipe dirigée par des scientifiques de l'Université Murdoch de Perth a montré qu'environ 20 % des mouettes argentées australiennes seraient infectées par des bactéries ultrarésistantes comme le E-coli, qui peuvent provoquer des infections urinaires, des méningites ou des septicémies.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bact%C3%A9rie_multir%C3%A9sistante</t>
+          <t>Bactérie_multirésistante</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Prise en charge</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le malade est généralement isolé. Un sigle distinctif est apposé sur le dossier médical, infirmier et sur la porte de la chambre. L'identification du germe, sa date d'apparition et le site sont apposés sur la porte de la chambre et sur la feuille de surveillance.
 Le lavage des mains effectué à l'entrée et à la sortie de la chambre, avant et après chaque soin, est antiseptique. On pense généralement que ce lavage antiseptique des mains peut être réalisé par des solutés hydroalcooliques. En réalité, des gants doivent être portés pour tout contact avec le patient ou avec le matériel contaminé (drap, lit, etc.). La consigne est : « Un patient = une paire de gants ; un geste = une paire de gants ». Le port du tablier est obligatoire dès l'entrée dans la chambre et sera jeté avant la sortie.
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bact%C3%A9rie_multir%C3%A9sistante</t>
+          <t>Bactérie_multirésistante</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,10 +598,12 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces bactéries exposent au risque d’impasse thérapeutique, imposent une antibiothérapie probabiliste à large spectre responsable de nouvelles sélections bactériennes.
-Lorsque cela est possible, un traitement par bactériophagie dans le cadre réglementaire d'une ATUn ou d'une préparation magistrale peut être envisagé en France. Certains patients tentent de s'en procurer à l'étranger, mais les associations de malades ont pointé un risque élevé de désinformation[5].
+Lorsque cela est possible, un traitement par bactériophagie dans le cadre réglementaire d'une ATUn ou d'une préparation magistrale peut être envisagé en France. Certains patients tentent de s'en procurer à l'étranger, mais les associations de malades ont pointé un risque élevé de désinformation.
 </t>
         </is>
       </c>
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bact%C3%A9rie_multir%C3%A9sistante</t>
+          <t>Bactérie_multirésistante</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,8 +634,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">En France
-Dans ce pays existe un Comité technique national des infections nosocomiales qui suit également les accidents avec exposition au sang (AES), comme l'une de ses priorités depuis 1998[6].
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans ce pays existe un Comité technique national des infections nosocomiales qui suit également les accidents avec exposition au sang (AES), comme l'une de ses priorités depuis 1998.
 </t>
         </is>
       </c>
